--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T08:17:45+00:00</t>
+    <t>2025-10-21T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1467,7 +1467,7 @@
     <t>PI</t>
   </si>
   <si>
-    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure. Cet identifiant est obtenu par la concaténation du type d'identifiant national de personne (provenant de la nomenclature TRE_G08-TypeIdentifiantPersonne), de l'identifiant de la structure (numéro FINESS), de l'identifiant local de l’usager au sein de la structure (identifiantLocalUsagerESSMS) : 3+FINESS/identifiantLocalUsagerESSMS</t>
+    <t>Hospital assigned patient identifier | IPP; Dans le cadre de ce volet, représente l'Identifiant local de l’usager au sein de la structure.</t>
   </si>
   <si>
     <t>identifiantLocalUsagerESSMS</t>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>Patient.identifier:PI.system</t>
+  </si>
+  <si>
+    <t>https://identifiant-medicosocial-localusager.cnsa.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>
@@ -12065,7 +12068,7 @@
         <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>405</v>
@@ -12139,7 +12142,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>410</v>
@@ -12259,7 +12262,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>419</v>
@@ -12377,7 +12380,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>426</v>
@@ -12497,13 +12500,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -12528,7 +12531,7 @@
         <v>357</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>359</v>
@@ -12619,7 +12622,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>372</v>
@@ -12737,7 +12740,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>374</v>
@@ -12857,7 +12860,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>376</v>
@@ -12979,7 +12982,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13027,7 +13030,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>82</v>
@@ -13101,7 +13104,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>399</v>
@@ -13223,7 +13226,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>410</v>
@@ -13343,7 +13346,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>419</v>
@@ -13461,7 +13464,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>426</v>
@@ -13581,13 +13584,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -13612,7 +13615,7 @@
         <v>357</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M88" t="s" s="2">
         <v>359</v>
@@ -13683,7 +13686,7 @@
         <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>363</v>
@@ -13703,7 +13706,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>372</v>
@@ -13821,7 +13824,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>374</v>
@@ -13941,7 +13944,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>376</v>
@@ -14063,7 +14066,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14111,7 +14114,7 @@
         <v>82</v>
       </c>
       <c r="S92" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>82</v>
@@ -14185,7 +14188,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>399</v>
@@ -14214,7 +14217,7 @@
         <v>133</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>401</v>
@@ -14307,7 +14310,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>410</v>
@@ -14427,7 +14430,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>419</v>
@@ -14545,7 +14548,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>426</v>
@@ -14665,13 +14668,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>82</v>
@@ -14696,7 +14699,7 @@
         <v>357</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>359</v>
@@ -14787,7 +14790,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>372</v>
@@ -14905,7 +14908,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>374</v>
@@ -15025,7 +15028,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>376</v>
@@ -15147,7 +15150,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15195,7 +15198,7 @@
         <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>82</v>
@@ -15269,7 +15272,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>399</v>
@@ -15298,7 +15301,7 @@
         <v>133</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M102" t="s" s="2">
         <v>401</v>
@@ -15317,7 +15320,7 @@
         <v>82</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>405</v>
@@ -15391,7 +15394,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>410</v>
@@ -15511,7 +15514,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>419</v>
@@ -15629,7 +15632,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>426</v>
@@ -15749,13 +15752,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>82</v>
@@ -15780,7 +15783,7 @@
         <v>357</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>359</v>
@@ -15871,7 +15874,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>372</v>
@@ -15989,7 +15992,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>374</v>
@@ -16109,7 +16112,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>376</v>
@@ -16231,7 +16234,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16279,7 +16282,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>82</v>
@@ -16353,7 +16356,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>399</v>
@@ -16382,7 +16385,7 @@
         <v>133</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>401</v>
@@ -16401,7 +16404,7 @@
         <v>82</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>405</v>
@@ -16475,7 +16478,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>410</v>
@@ -16595,7 +16598,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>419</v>
@@ -16713,7 +16716,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>426</v>
@@ -16833,13 +16836,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>82</v>
@@ -16864,7 +16867,7 @@
         <v>357</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>359</v>
@@ -16935,7 +16938,7 @@
         <v>103</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>363</v>
@@ -16955,7 +16958,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>372</v>
@@ -17073,7 +17076,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>374</v>
@@ -17193,7 +17196,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>376</v>
@@ -17241,7 +17244,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17315,7 +17318,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17363,7 +17366,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>82</v>
@@ -17437,7 +17440,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>399</v>
@@ -17466,7 +17469,7 @@
         <v>133</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M120" t="s" s="2">
         <v>401</v>
@@ -17485,7 +17488,7 @@
         <v>82</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>405</v>
@@ -17559,7 +17562,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>410</v>
@@ -17679,7 +17682,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>419</v>
@@ -17797,7 +17800,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>426</v>
@@ -17917,13 +17920,13 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D124" t="s" s="2">
         <v>82</v>
@@ -17948,7 +17951,7 @@
         <v>357</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M124" t="s" s="2">
         <v>359</v>
@@ -18019,7 +18022,7 @@
         <v>103</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>363</v>
@@ -18039,7 +18042,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>372</v>
@@ -18157,7 +18160,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>374</v>
@@ -18277,7 +18280,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>376</v>
@@ -18399,7 +18402,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18447,7 +18450,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>82</v>
@@ -18468,7 +18471,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18521,7 +18524,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18643,7 +18646,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18763,7 +18766,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18881,7 +18884,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18907,7 +18910,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19001,10 +19004,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19027,70 +19030,70 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF133" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19108,13 +19111,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19125,10 +19128,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19151,19 +19154,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19200,7 +19203,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19210,7 +19213,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19228,16 +19231,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19245,13 +19248,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19273,19 +19276,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19334,7 +19337,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19352,16 +19355,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19369,10 +19372,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19487,10 +19490,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19607,10 +19610,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19636,16 +19639,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19673,10 +19676,10 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>82</v>
@@ -19694,7 +19697,7 @@
         <v>82</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19721,7 +19724,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19729,10 +19732,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19758,13 +19761,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19816,7 +19819,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19843,7 +19846,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19851,14 +19854,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19880,13 +19883,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19936,7 +19939,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19951,10 +19954,10 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -19963,7 +19966,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19971,14 +19974,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20000,13 +20003,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20056,7 +20059,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20071,10 +20074,10 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20083,7 +20086,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20094,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20120,10 +20123,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20174,7 +20177,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20192,7 +20195,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20201,7 +20204,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20209,10 +20212,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20238,10 +20241,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20292,7 +20295,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20310,7 +20313,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20319,7 +20322,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20327,10 +20330,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20356,14 +20359,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20412,7 +20415,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20439,7 +20442,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20447,13 +20450,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20475,19 +20478,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20536,7 +20539,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20554,16 +20557,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20571,10 +20574,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20689,10 +20692,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20807,13 +20810,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20835,13 +20838,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20907,7 +20910,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20927,10 +20930,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20956,16 +20959,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20993,10 +20996,10 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z149" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AA149" t="s" s="2">
         <v>82</v>
@@ -21014,7 +21017,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21041,7 +21044,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21049,10 +21052,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21078,13 +21081,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21136,7 +21139,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21163,7 +21166,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21171,14 +21174,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21200,13 +21203,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21256,7 +21259,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21271,10 +21274,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21283,7 +21286,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21291,14 +21294,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21320,13 +21323,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21376,7 +21379,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21391,10 +21394,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21403,7 +21406,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21411,10 +21414,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21440,10 +21443,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21494,7 +21497,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21509,10 +21512,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21521,7 +21524,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21529,10 +21532,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21558,10 +21561,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21612,7 +21615,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21630,7 +21633,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21639,7 +21642,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21647,10 +21650,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21676,14 +21679,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21732,7 +21735,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21759,7 +21762,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21767,10 +21770,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21793,19 +21796,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21854,7 +21857,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21866,13 +21869,13 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>82</v>
@@ -21881,7 +21884,7 @@
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21889,10 +21892,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21918,16 +21921,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21956,7 +21959,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21974,7 +21977,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21989,19 +21992,19 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22009,10 +22012,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22035,19 +22038,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22096,7 +22099,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22111,30 +22114,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AP158" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22157,19 +22160,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O159" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22218,7 +22221,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22236,7 +22239,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22245,7 +22248,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22253,10 +22256,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22291,7 +22294,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22340,7 +22343,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22375,10 +22378,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22404,14 +22407,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22440,7 +22443,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22458,7 +22461,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22476,16 +22479,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22493,10 +22496,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22519,19 +22522,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22580,7 +22583,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22598,7 +22601,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22607,7 +22610,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22615,10 +22618,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22641,19 +22644,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22702,7 +22705,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22720,7 +22723,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22729,7 +22732,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22737,10 +22740,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22763,19 +22766,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22824,7 +22827,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22836,13 +22839,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22859,10 +22862,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22977,10 +22980,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23093,13 +23096,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="B167" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="C167" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23121,13 +23124,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23213,13 +23216,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23241,13 +23244,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23333,14 +23336,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23362,10 +23365,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23420,7 +23423,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23455,10 +23458,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23484,14 +23487,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23519,16 +23522,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB170" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23538,7 +23541,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23556,7 +23559,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23565,7 +23568,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23573,13 +23576,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23604,14 +23607,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23640,7 +23643,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23658,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23676,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23685,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23693,13 +23696,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23724,14 +23727,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23760,7 +23763,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23778,7 +23781,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23796,7 +23799,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23805,7 +23808,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23813,10 +23816,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23839,19 +23842,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23900,7 +23903,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23918,7 +23921,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23927,7 +23930,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23935,10 +23938,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23961,19 +23964,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24022,7 +24025,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24034,13 +24037,13 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AK174" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>82</v>
@@ -24049,7 +24052,7 @@
         <v>82</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24057,10 +24060,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24083,17 +24086,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24142,7 +24145,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24160,7 +24163,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24169,7 +24172,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24177,10 +24180,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24206,14 +24209,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24241,10 +24244,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24262,7 +24265,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24280,7 +24283,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24289,7 +24292,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24297,10 +24300,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24326,14 +24329,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24382,7 +24385,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24391,7 +24394,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24400,7 +24403,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24409,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24417,10 +24420,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24446,10 +24449,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24500,7 +24503,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24518,7 +24521,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24535,10 +24538,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24561,19 +24564,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24622,7 +24625,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24640,10 +24643,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24657,10 +24660,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24775,10 +24778,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24895,14 +24898,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24924,10 +24927,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24982,7 +24985,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25017,10 +25020,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25046,16 +25049,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O183" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25104,7 +25107,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25122,16 +25125,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AN183" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25139,10 +25142,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25165,19 +25168,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25226,7 +25229,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25244,16 +25247,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25261,14 +25264,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25287,16 +25290,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25346,7 +25349,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25364,7 +25367,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25373,7 +25376,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25381,10 +25384,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25407,19 +25410,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25468,7 +25471,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25486,10 +25489,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25503,10 +25506,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25529,19 +25532,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="O187" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25590,7 +25593,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25608,7 +25611,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25625,10 +25628,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25743,10 +25746,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25863,14 +25866,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25892,10 +25895,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25950,7 +25953,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25985,10 +25988,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26011,16 +26014,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26070,7 +26073,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26097,7 +26100,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26108,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26134,10 +26137,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26167,10 +26170,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26188,7 +26191,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26206,7 +26209,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:05:40+00:00</t>
+    <t>2025-10-22T08:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1500,7 +1500,7 @@
     <t>Patient.identifier:PI.system</t>
   </si>
   <si>
-    <t>https://identifiant-medicosocial-localusager.cnsa.fr</t>
+    <t>https://identifiant-medicosocial-localusager.esante.gouv.fr</t>
   </si>
   <si>
     <t>Patient.identifier:PI.value</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T08:03:07+00:00</t>
+    <t>2025-10-22T10:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T10:16:49+00:00</t>
+    <t>2025-10-23T08:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
